--- a/3_OutputTables/SupplementalTableS2_SputumCellsAndCytokines_AggregateANOVAResults.xlsx
+++ b/3_OutputTables/SupplementalTableS2_SputumCellsAndCytokines_AggregateANOVAResults.xlsx
@@ -17,7 +17,7 @@
     <t xml:space="preserve">Variable</t>
   </si>
   <si>
-    <t xml:space="preserve">N_Total</t>
+    <t xml:space="preserve">N</t>
   </si>
   <si>
     <t xml:space="preserve">N_Male</t>
